--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,42 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +72,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +165,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +373,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -393,6 +393,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,6 +25,10 @@
   </si>
   <si>
     <t>充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -401,6 +405,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +29,10 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -410,6 +414,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -419,6 +419,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -424,6 +424,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7777</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -384,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -428,6 +428,9 @@
       <c r="A8">
         <v>7777</v>
       </c>
+      <c r="B8">
+        <v>233</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,10 @@
   </si>
   <si>
     <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -409,17 +413,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>1</v>
       </c>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -424,6 +424,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>666</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -384,7 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -424,6 +424,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>34</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>666</v>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,10 @@
   </si>
   <si>
     <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊啊啊啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -409,29 +413,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>666</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -4,39 +4,48 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊啊啊啊啊</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+  <si>
+    <t>媒体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,43 +414,99 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11">
-        <v>666</v>
-      </c>
-      <c r="D11" t="s">
         <v>5</v>
       </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <protectedRanges>
+    <protectedRange algorithmName="SHA-512" hashValue="N0aXlDyoUcMIlOWVrxsZmXU/q6lbDFd4KDXHZsMwcAAm5O7Ehb8Hg20a3FNNxLpvvB0afuNlG5B46vNqdELraA==" saltValue="pd0Y8NnsHQHwiPuLFfqtvg==" spinCount="100000" sqref="C1:C1048576" name="区域3"/>
+    <protectedRange algorithmName="SHA-512" hashValue="oA48guFbITDGlRdZ10Pf3GJVYJRr0Ds6pXRmeKMDUNpodz11DS+boHEEES1JjHhpcSXykBBJhNLzE+IlzCoSDA==" saltValue="GNLX56vLElvzRj/mk7Nqbw==" spinCount="100000" sqref="B1:B1048576" name="区域2"/>
+    <protectedRange algorithmName="SHA-512" hashValue="IBohVrF+jY45fkYDqVTfhtkkD9Rsnz3wTU45Atx7+lyz7BP7D+qH56S1d2/OiOyv9sk0HZynX3x+ylyiDYSHfw==" saltValue="2xtxH5o242i33dgViKYtaQ==" spinCount="100000" sqref="A1:A1048576" name="区域1"/>
+  </protectedRanges>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="RCLBDpOp/slloI/htLRB9adbgUeyGDQX1+7dezoTiepg8La0Vm24SbRhD3Li8hM595OeSbHhU1kbHsu2bicyfw==" saltValue="CxBJgTPrnCUXfXMlGKYPXA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,23 +29,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -419,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0.1</v>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0.2</v>
@@ -441,7 +441,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0.3</v>
@@ -464,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -472,37 +472,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -45,7 +45,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
+    <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -45,7 +45,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
+    <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -448,7 +448,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="N0aXlDyoUcMIlOWVrxsZmXU/q6lbDFd4KDXHZsMwcAAm5O7Ehb8Hg20a3FNNxLpvvB0afuNlG5B46vNqdELraA==" saltValue="pd0Y8NnsHQHwiPuLFfqtvg==" spinCount="100000" sqref="C1:C1048576" name="区域3"/>
     <protectedRange algorithmName="SHA-512" hashValue="oA48guFbITDGlRdZ10Pf3GJVYJRr0Ds6pXRmeKMDUNpodz11DS+boHEEES1JjHhpcSXykBBJhNLzE+IlzCoSDA==" saltValue="GNLX56vLElvzRj/mk7Nqbw==" spinCount="100000" sqref="B1:B1048576" name="区域2"/>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -416,7 +416,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -445,6 +445,11 @@
       </c>
       <c r="C4">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>媒体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仍无法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -424,8 +428,11 @@
       <c r="C2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -436,7 +443,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -416,7 +416,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -445,6 +445,16 @@
       </c>
       <c r="C4">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -450,6 +450,9 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -455,6 +455,11 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -460,6 +460,11 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>666666</v>
       </c>
     </row>
   </sheetData>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -395,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,8 +413,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="G1">
+        <v>777777</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10</v>
       </c>
@@ -425,7 +428,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -436,7 +439,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -447,17 +450,17 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -419,7 +419,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -426,6 +426,9 @@
       </c>
       <c r="C2">
         <v>0.1</v>
+      </c>
+      <c r="G2">
+        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -440,6 +440,9 @@
       </c>
       <c r="C3">
         <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>1212</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">

--- a/test/aa.xlsx
+++ b/test/aa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>媒体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,14 @@
   </si>
   <si>
     <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -432,42 +440,50 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.2</v>
-      </c>
-      <c r="G3">
-        <v>1212</v>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <v>1212</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>7</v>
       </c>
     </row>
